--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H2">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I2">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J2">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>67.20775037211135</v>
+        <v>74.42464455072889</v>
       </c>
       <c r="R2">
-        <v>67.20775037211135</v>
+        <v>669.82180095656</v>
       </c>
       <c r="S2">
-        <v>0.2115626199726255</v>
+        <v>0.2059822703629998</v>
       </c>
       <c r="T2">
-        <v>0.2115626199726255</v>
+        <v>0.2059822703629997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H3">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I3">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J3">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>69.20083131057871</v>
+        <v>71.83506030261533</v>
       </c>
       <c r="R3">
-        <v>69.20083131057871</v>
+        <v>646.5155427235379</v>
       </c>
       <c r="S3">
-        <v>0.2178366199625824</v>
+        <v>0.1988151761035288</v>
       </c>
       <c r="T3">
-        <v>0.2178366199625824</v>
+        <v>0.1988151761035288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H4">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I4">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J4">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>38.10664408013135</v>
+        <v>45.988188881604</v>
       </c>
       <c r="R4">
-        <v>38.10664408013135</v>
+        <v>413.893699934436</v>
       </c>
       <c r="S4">
-        <v>0.1199555321420537</v>
+        <v>0.1272797688574581</v>
       </c>
       <c r="T4">
-        <v>0.1199555321420537</v>
+        <v>0.1272797688574581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H5">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I5">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J5">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>13.11676777720669</v>
+        <v>14.53766400171467</v>
       </c>
       <c r="R5">
-        <v>13.11676777720669</v>
+        <v>130.838976015432</v>
       </c>
       <c r="S5">
-        <v>0.04129014497812867</v>
+        <v>0.04023534213598488</v>
       </c>
       <c r="T5">
-        <v>0.04129014497812867</v>
+        <v>0.04023534213598488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H6">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I6">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J6">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>25.20938168906951</v>
+        <v>30.37909508741334</v>
       </c>
       <c r="R6">
-        <v>25.20938168906951</v>
+        <v>273.41185578672</v>
       </c>
       <c r="S6">
-        <v>0.07935636602177684</v>
+        <v>0.08407907105842628</v>
       </c>
       <c r="T6">
-        <v>0.07935636602177684</v>
+        <v>0.08407907105842626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H7">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I7">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J7">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>25.95697906938418</v>
+        <v>29.322063151484</v>
       </c>
       <c r="R7">
-        <v>25.95697906938418</v>
+        <v>263.898568363356</v>
       </c>
       <c r="S7">
-        <v>0.08170972050229927</v>
+        <v>0.08115356379771624</v>
       </c>
       <c r="T7">
-        <v>0.08170972050229927</v>
+        <v>0.08115356379771622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H8">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I8">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J8">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>14.29366301039267</v>
+        <v>18.771733091448</v>
       </c>
       <c r="R8">
-        <v>14.29366301039267</v>
+        <v>168.945597823032</v>
       </c>
       <c r="S8">
-        <v>0.04499488197032889</v>
+        <v>0.05195381481720282</v>
       </c>
       <c r="T8">
-        <v>0.04499488197032889</v>
+        <v>0.05195381481720281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H9">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I9">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J9">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>4.920051684391819</v>
+        <v>5.934070356976001</v>
       </c>
       <c r="R9">
-        <v>4.920051684391819</v>
+        <v>53.40663321278401</v>
       </c>
       <c r="S9">
-        <v>0.01548778256953227</v>
+        <v>0.01642350181182991</v>
       </c>
       <c r="T9">
-        <v>0.01548778256953227</v>
+        <v>0.01642350181182991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H10">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I10">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J10">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>21.36993091257643</v>
+        <v>25.23821659821778</v>
       </c>
       <c r="R10">
-        <v>21.36993091257643</v>
+        <v>227.14394938396</v>
       </c>
       <c r="S10">
-        <v>0.06727019647982062</v>
+        <v>0.0698508563419552</v>
       </c>
       <c r="T10">
-        <v>0.06727019647982062</v>
+        <v>0.06985085634195519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H11">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I11">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J11">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>22.00366737485049</v>
+        <v>24.36006006085367</v>
       </c>
       <c r="R11">
-        <v>22.00366737485049</v>
+        <v>219.240540547683</v>
       </c>
       <c r="S11">
-        <v>0.06926512929022637</v>
+        <v>0.0674204157480861</v>
       </c>
       <c r="T11">
-        <v>0.06926512929022637</v>
+        <v>0.06742041574808609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H12">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I12">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J12">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>12.11670301109297</v>
+        <v>15.595101313014</v>
       </c>
       <c r="R12">
-        <v>12.11670301109297</v>
+        <v>140.355911817126</v>
       </c>
       <c r="S12">
-        <v>0.03814205088347607</v>
+        <v>0.04316197133875545</v>
       </c>
       <c r="T12">
-        <v>0.03814205088347607</v>
+        <v>0.04316197133875544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H13">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I13">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J13">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>4.170715723160572</v>
+        <v>4.929881964801334</v>
       </c>
       <c r="R13">
-        <v>4.170715723160572</v>
+        <v>44.368937683212</v>
       </c>
       <c r="S13">
-        <v>0.01312895522714926</v>
+        <v>0.01364424762605655</v>
       </c>
       <c r="T13">
-        <v>0.01312895522714926</v>
+        <v>0.01364424762605654</v>
       </c>
     </row>
   </sheetData>
